--- a/results/I3_N5_M2_T30_C100_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1185.520755998145</v>
+        <v>1083.810118610387</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.9426149843276</v>
+        <v>26.43831051044998</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.198388743471682</v>
+        <v>11.16601364682031</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.486529757289184</v>
+        <v>8.537821746756924</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>923.2999999999995</v>
+        <v>896</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>233.99</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,12 +628,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.93048325774539</v>
+        <v>23.10555953090583</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.35722294236247</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +978,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17.10830325470276</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -947,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2470593404437</v>
+        <v>23.61204927984102</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>28.17507627316046</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1126,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1085,15 +1140,113 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>153.6849999999998</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>171.2799999999997</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1229,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>159.6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>160.1699999999998</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -1251,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>124.76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -1262,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>134.9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>118.465</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -1284,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>137.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1295,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>133.9900000000005</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1306,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>101.3800000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -1317,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>94.24500000000015</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19">
@@ -1328,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>101.9050000000001</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -1339,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>95.42000000000014</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21">
@@ -1350,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>96.98500000000014</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -1361,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>61.69000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1372,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>62.66500000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1383,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>66.29000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1547,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1405,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>61.57500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1416,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1427,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1438,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1449,7 +1602,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1460,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1471,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>124.76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>134.9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -1493,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>118.465</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -1504,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>137.7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -1515,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>133.9900000000005</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -1526,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>167.1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1537,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.6849999999998</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39">
@@ -1548,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>171.2799999999997</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1559,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>159.6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>160.1699999999998</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>24.76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1628,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>34.9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1639,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18.465</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1650,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>37.69999999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1661,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>33.99000000000049</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1672,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>67.09999999999999</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1683,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.68499999999977</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1694,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>71.27999999999975</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1705,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>59.6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1716,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>60.16999999999976</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1884,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1895,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1906,7 +2059,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1917,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1928,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1939,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1950,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1961,7 +2114,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1972,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1983,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1994,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2005,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2016,7 +2169,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2027,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2159,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2167,10 +2320,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2181,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2195,6 +2348,28 @@
         <v>3</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
